--- a/27th May Batch - Current/Class_23.12.2023_Excel_session1.xlsx
+++ b/27th May Batch - Current/Class_23.12.2023_Excel_session1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DS WorkFlow\Data Is Good Class Files\Batches\2023-Classes\27th May Batch - Current\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF3A327A-872E-4327-8ECD-0D43FF34CBF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B8E6F01-F810-48A6-B979-B875E1EF814D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="48">
   <si>
     <t>Relative Reference</t>
   </si>
@@ -175,6 +175,9 @@
   </si>
   <si>
     <t>COUNTIFS</t>
+  </si>
+  <si>
+    <t>Id</t>
   </si>
 </sst>
 </file>
@@ -246,7 +249,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -254,18 +257,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -274,17 +270,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -565,645 +561,684 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O30"/>
+  <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C19" workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.36328125" customWidth="1"/>
-    <col min="2" max="3" width="15.36328125" customWidth="1"/>
-    <col min="4" max="4" width="11.6328125" customWidth="1"/>
-    <col min="5" max="5" width="13.6328125" customWidth="1"/>
-    <col min="6" max="6" width="12.7265625" customWidth="1"/>
-    <col min="7" max="7" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.36328125" customWidth="1"/>
-    <col min="11" max="11" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.90625" customWidth="1"/>
-    <col min="14" max="14" width="11.26953125" customWidth="1"/>
-    <col min="15" max="15" width="10.54296875" customWidth="1"/>
+    <col min="2" max="2" width="20.36328125" customWidth="1"/>
+    <col min="3" max="4" width="15.36328125" customWidth="1"/>
+    <col min="5" max="5" width="11.6328125" customWidth="1"/>
+    <col min="6" max="6" width="13.6328125" customWidth="1"/>
+    <col min="7" max="7" width="12.7265625" customWidth="1"/>
+    <col min="8" max="8" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.36328125" customWidth="1"/>
+    <col min="12" max="12" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.90625" customWidth="1"/>
+    <col min="15" max="15" width="11.26953125" customWidth="1"/>
+    <col min="16" max="16" width="10.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2" t="s">
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2">
+      <c r="D2" s="2">
         <v>3</v>
       </c>
-      <c r="D2" s="2">
+      <c r="E2" s="2">
         <v>35000</v>
       </c>
-      <c r="E2" s="2">
-        <f>D2*C2</f>
+      <c r="F2" s="2">
+        <f>E2*D2</f>
         <v>105000</v>
       </c>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2">
+      <c r="D3" s="2">
         <v>2</v>
       </c>
-      <c r="D3" s="2">
+      <c r="E3" s="2">
         <v>16000</v>
       </c>
-      <c r="E3" s="2">
-        <f t="shared" ref="E3:E5" si="0">D3*C3</f>
+      <c r="F3" s="2">
+        <f t="shared" ref="F3:F5" si="0">E3*D3</f>
         <v>32000</v>
       </c>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2" t="s">
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="2">
+      <c r="D4" s="2">
         <v>5</v>
       </c>
-      <c r="D4" s="2">
+      <c r="E4" s="2">
         <v>28000</v>
       </c>
-      <c r="E4" s="2">
+      <c r="F4" s="2">
         <f t="shared" si="0"/>
         <v>140000</v>
       </c>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2" t="s">
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="2">
+      <c r="D5" s="2">
         <v>4</v>
       </c>
-      <c r="D5" s="2">
+      <c r="E5" s="2">
         <v>6000</v>
       </c>
-      <c r="E5" s="2">
+      <c r="F5" s="2">
         <f t="shared" si="0"/>
         <v>24000</v>
       </c>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="6" t="s">
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="D7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="E7" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="F7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="6"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="6"/>
-      <c r="B8" s="3" t="s">
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B8" s="4"/>
+      <c r="C8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="7">
+      <c r="D8" s="5">
         <v>45283</v>
       </c>
-      <c r="D8" s="3">
+      <c r="E8" s="2">
         <v>5</v>
       </c>
-      <c r="E8" s="6">
+      <c r="F8" s="4">
         <v>35000</v>
       </c>
-      <c r="F8" s="6">
-        <f>$E$8*D8</f>
+      <c r="G8" s="4">
+        <f>$F$8*E8</f>
         <v>175000</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="7">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5">
         <v>45284</v>
       </c>
-      <c r="D9" s="3">
+      <c r="E9" s="2">
         <v>1</v>
       </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6">
-        <f t="shared" ref="F9:F14" si="1">$E$8*D9</f>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4">
+        <f t="shared" ref="G9:G14" si="1">$F$8*E9</f>
         <v>35000</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="7">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="5">
         <v>45285</v>
       </c>
-      <c r="D10" s="3">
+      <c r="E10" s="2">
         <v>3</v>
       </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6">
+      <c r="F10" s="4"/>
+      <c r="G10" s="4">
         <f t="shared" si="1"/>
         <v>105000</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="7">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="5">
         <v>45286</v>
       </c>
-      <c r="D11" s="3">
+      <c r="E11" s="2">
         <v>7</v>
       </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6">
+      <c r="F11" s="4"/>
+      <c r="G11" s="4">
         <f t="shared" si="1"/>
         <v>245000</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="7">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="5">
         <v>45287</v>
       </c>
-      <c r="D12" s="3">
+      <c r="E12" s="2">
         <v>9</v>
       </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6">
+      <c r="F12" s="4"/>
+      <c r="G12" s="4">
         <f t="shared" si="1"/>
         <v>315000</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="7">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="5">
         <v>45288</v>
       </c>
-      <c r="D13" s="3">
+      <c r="E13" s="2">
         <v>2</v>
       </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6">
+      <c r="F13" s="4"/>
+      <c r="G13" s="4">
         <f t="shared" si="1"/>
         <v>70000</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="7">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="5">
         <v>45289</v>
       </c>
-      <c r="D14" s="3">
+      <c r="E14" s="2">
         <v>10</v>
       </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6">
+      <c r="F14" s="4"/>
+      <c r="G14" s="4">
         <f t="shared" si="1"/>
         <v>350000</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="8" t="s">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B16" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A17" s="4" t="s">
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B17" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="4" t="str">
-        <f>LEFT(B17)</f>
+      <c r="D17" s="3" t="str">
+        <f>LEFT(C17)</f>
         <v>H</v>
       </c>
-      <c r="D17" s="4" t="str">
-        <f>LEFT(B17,3)</f>
+      <c r="E17" s="3" t="str">
+        <f>LEFT(C17,3)</f>
         <v>Har</v>
       </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A18" s="4" t="s">
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B18" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="4" t="str">
-        <f>RIGHT(B18)</f>
+      <c r="D18" s="3" t="str">
+        <f>RIGHT(C18)</f>
         <v>r</v>
       </c>
-      <c r="D18" s="4" t="str">
-        <f>RIGHT(B18,3)</f>
+      <c r="E18" s="3" t="str">
+        <f>RIGHT(C18,3)</f>
         <v>ter</v>
       </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="M19" s="6"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="E20" s="9"/>
-      <c r="M20" s="6"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A21" s="10" t="s">
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="N19" s="4"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="F20" s="6"/>
+      <c r="N20" s="4"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A21" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="C21" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="D21" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="E21" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="F21" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F21" s="10" t="s">
+      <c r="G21" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G21" s="11" t="s">
+      <c r="H21" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="H21" s="11" t="s">
+      <c r="I21" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="I21" s="11" t="s">
+      <c r="J21" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="J21" s="11" t="s">
+      <c r="K21" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="K21" s="11" t="s">
+      <c r="L21" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="L21" s="14" t="s">
+      <c r="M21" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="M21" s="6"/>
-      <c r="N21" s="11" t="s">
+      <c r="N21" s="4"/>
+      <c r="O21" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="O21" s="12" t="s">
+      <c r="P21" s="8" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A22" s="6" t="s">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A22" s="7">
+        <v>1</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="C22" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="6">
+      <c r="D22" s="4">
         <v>44</v>
       </c>
-      <c r="D22" s="6">
+      <c r="E22" s="4">
         <v>25399</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="F22" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="G22" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G22" s="13">
-        <f>AVERAGEIF(B22:B30,B22,D22:D30)</f>
+      <c r="H22" s="9">
+        <f>AVERAGEIF(C22:C30,C22,E22:E30)</f>
         <v>31204.666666666668</v>
       </c>
-      <c r="H22" s="6">
-        <f>AVERAGEIFS(D22:D30,B22:B30,B24,F22:F30,F23)</f>
+      <c r="I22" s="4">
+        <f>AVERAGEIFS(E22:E30,C22:C30,C24,G22:G30,G23)</f>
         <v>19829</v>
       </c>
-      <c r="I22" s="6">
-        <f>COUNT(C22:C30)</f>
+      <c r="J22" s="4">
+        <f>COUNT(D22:D30)</f>
         <v>9</v>
       </c>
-      <c r="J22" s="6">
-        <f>COUNTA(A22:A30)</f>
+      <c r="K22" s="4">
+        <f>COUNTA(B22:B30)</f>
         <v>7</v>
       </c>
-      <c r="K22" s="6">
-        <f>COUNTBLANK(A22:A30)</f>
+      <c r="L22" s="4">
+        <f>COUNTBLANK(B22:B30)</f>
         <v>2</v>
       </c>
-      <c r="L22" s="15">
-        <f>COUNTIF(B22:B30,B24)</f>
+      <c r="M22" s="11">
+        <f>COUNTIF(C22:C30,C24)</f>
         <v>4</v>
       </c>
-      <c r="M22" s="6" t="s">
+      <c r="N22" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="N22" s="4">
-        <f>COUNTIF(B22:B30,B22)</f>
+      <c r="O22" s="3">
+        <f>COUNTIF(C22:C30,C22)</f>
         <v>3</v>
       </c>
-      <c r="O22" s="5">
-        <f>COUNTIFS(B22:B30,B24,F22:F30,F29)</f>
+      <c r="P22" s="3">
+        <f>COUNTIFS(C22:C30,C24,G22:G30,G29)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A23" s="6" t="s">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A23" s="7">
+        <v>2</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="C23" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="6">
+      <c r="D23" s="4">
         <v>37</v>
       </c>
-      <c r="D23" s="6">
+      <c r="E23" s="4">
         <v>33830</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="F23" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="G23" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G23" s="6">
-        <f>AVERAGEIF(B22:B30,B24,D22:D30)</f>
+      <c r="H23" s="4">
+        <f>AVERAGEIF(C22:C30,C24,E22:E30)</f>
         <v>21094</v>
       </c>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="6" t="s">
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="N23" s="4">
-        <f>COUNTIF(B22:B30,B24)</f>
+      <c r="O23" s="3">
+        <f>COUNTIF(C22:C30,C24)</f>
         <v>4</v>
       </c>
-      <c r="O23" s="5"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6" t="s">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A24" s="7">
+        <v>3</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="6">
+      <c r="D24" s="4">
         <v>43</v>
       </c>
-      <c r="D24" s="6">
+      <c r="E24" s="4">
         <v>21249</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="F24" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="G24" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="6" t="s">
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="N24" s="4">
-        <f>COUNTIF(B22:B30,B26)</f>
+      <c r="O24" s="3">
+        <f>COUNTIF(C22:C30,C26)</f>
         <v>2</v>
       </c>
-      <c r="O24" s="5"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A25" s="6" t="s">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A25" s="7">
+        <v>4</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="C25" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="6">
+      <c r="D25" s="4">
         <v>33</v>
       </c>
-      <c r="D25" s="6">
+      <c r="E25" s="4">
         <v>19829</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="F25" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="G25" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="6"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="11"/>
       <c r="N25" s="4"/>
-      <c r="O25" s="5"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A26" s="6" t="s">
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A26" s="7">
+        <v>5</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="C26" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="6">
+      <c r="D26" s="4">
         <v>31</v>
       </c>
-      <c r="D26" s="6">
+      <c r="E26" s="4">
         <v>20579</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="F26" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="G26" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="6"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="11"/>
       <c r="N26" s="4"/>
-      <c r="O26" s="5"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6" t="s">
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A27" s="7">
+        <v>6</v>
+      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="6">
+      <c r="D27" s="4">
         <v>25</v>
       </c>
-      <c r="D27" s="6">
+      <c r="E27" s="4">
         <v>32220</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="F27" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="G27" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="15"/>
-      <c r="M27" s="6"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="11"/>
       <c r="N27" s="4"/>
-      <c r="O27" s="5"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A28" s="6" t="s">
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A28" s="7">
+        <v>7</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="C28" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="6">
+      <c r="D28" s="4">
         <v>43</v>
       </c>
-      <c r="D28" s="6">
+      <c r="E28" s="4">
         <v>34385</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="F28" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F28" s="6" t="s">
+      <c r="G28" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="6"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="11"/>
       <c r="N28" s="4"/>
-      <c r="O28" s="5"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A29" s="6" t="s">
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A29" s="7">
+        <v>8</v>
+      </c>
+      <c r="B29" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="C29" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="6">
+      <c r="D29" s="4">
         <v>25</v>
       </c>
-      <c r="D29" s="6">
+      <c r="E29" s="4">
         <v>19560</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="F29" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F29" s="6" t="s">
+      <c r="G29" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="15"/>
-      <c r="M29" s="6"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="11"/>
       <c r="N29" s="4"/>
-      <c r="O29" s="5"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A30" s="6" t="s">
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A30" s="7">
+        <v>9</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="C30" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="6">
+      <c r="D30" s="4">
         <v>25</v>
       </c>
-      <c r="D30" s="6">
+      <c r="E30" s="4">
         <v>23738</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="F30" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F30" s="6" t="s">
+      <c r="G30" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="15"/>
-      <c r="M30" s="6"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="11"/>
       <c r="N30" s="4"/>
-      <c r="O30" s="5"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B32" t="str">
+        <f>VLOOKUP(C32,A21:E30,2,)</f>
+        <v>Navin</v>
+      </c>
+      <c r="C32">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="B16:G16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
